--- a/Data/ROY Data/rookies_94_95.xlsx
+++ b/Data/ROY Data/rookies_94_95.xlsx
@@ -882,76 +882,76 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="H2">
-        <v>2657</v>
+        <v>1032</v>
       </c>
       <c r="I2">
-        <v>318</v>
+        <v>120</v>
       </c>
       <c r="J2">
-        <v>650</v>
+        <v>258</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="N2">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="O2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="P2">
-        <v>525</v>
+        <v>219</v>
       </c>
       <c r="Q2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="R2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="S2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="T2">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="U2">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="V2">
-        <v>751</v>
+        <v>299</v>
       </c>
       <c r="W2">
-        <v>0.489</v>
+        <v>0.465</v>
       </c>
       <c r="X2">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.487</v>
+        <v>0.492</v>
       </c>
       <c r="Z2">
-        <v>19.1</v>
+        <v>16.1</v>
       </c>
       <c r="AA2">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="AB2">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AC2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="s">
         <v>132</v>
@@ -974,76 +974,76 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>840</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>19915</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>2663</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>6507</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>923</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>2763</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>1463</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1679</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>654</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>2269</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3394</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>1133</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1556</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1398</v>
+        <v>3</v>
       </c>
       <c r="V3">
-        <v>7712</v>
+        <v>10</v>
       </c>
       <c r="W3">
-        <v>0.409</v>
+        <v>0.375</v>
       </c>
       <c r="X3">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="Y3">
-        <v>0.871</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>23.7</v>
+        <v>2.7</v>
       </c>
       <c r="AA3">
-        <v>9.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="AB3">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="AC3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="s">
         <v>132</v>
@@ -1158,76 +1158,76 @@
         <v>24</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>159</v>
-      </c>
-      <c r="I5">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>47</v>
-      </c>
-      <c r="K5">
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5">
-        <v>18</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>22</v>
-      </c>
       <c r="R5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="W5">
-        <v>0.34</v>
+        <v>0.545</v>
       </c>
       <c r="X5">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.722</v>
+        <v>0.75</v>
       </c>
       <c r="Z5">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="AA5">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD5" t="s">
         <v>132</v>
@@ -1339,73 +1339,73 @@
         <v>24</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>340</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>121</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>49</v>
+      </c>
+      <c r="O7">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>16</v>
+      </c>
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>128</v>
+      </c>
+      <c r="W7">
+        <v>0.372</v>
+      </c>
+      <c r="X7">
+        <v>0.24</v>
+      </c>
+      <c r="Y7">
+        <v>0.653</v>
+      </c>
+      <c r="Z7">
+        <v>8.1</v>
+      </c>
+      <c r="AA7">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>102</v>
-      </c>
-      <c r="H7">
-        <v>940</v>
-      </c>
-      <c r="I7">
-        <v>108</v>
-      </c>
-      <c r="J7">
-        <v>293</v>
-      </c>
-      <c r="K7">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>74</v>
-      </c>
-      <c r="M7">
-        <v>61</v>
-      </c>
-      <c r="N7">
-        <v>96</v>
-      </c>
-      <c r="O7">
-        <v>38</v>
-      </c>
-      <c r="P7">
-        <v>96</v>
-      </c>
-      <c r="Q7">
-        <v>41</v>
-      </c>
-      <c r="R7">
-        <v>24</v>
-      </c>
-      <c r="S7">
-        <v>13</v>
-      </c>
-      <c r="T7">
-        <v>47</v>
-      </c>
-      <c r="U7">
-        <v>68</v>
-      </c>
-      <c r="V7">
-        <v>299</v>
-      </c>
-      <c r="W7">
-        <v>0.369</v>
-      </c>
-      <c r="X7">
-        <v>0.297</v>
-      </c>
-      <c r="Y7">
-        <v>0.635</v>
-      </c>
-      <c r="Z7">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>2.9</v>
-      </c>
       <c r="AB7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>0.4</v>
@@ -1431,76 +1431,76 @@
         <v>27</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>541</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>13617</v>
+        <v>1021</v>
       </c>
       <c r="I8">
-        <v>1288</v>
+        <v>106</v>
       </c>
       <c r="J8">
-        <v>3196</v>
+        <v>279</v>
       </c>
       <c r="K8">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="L8">
-        <v>1082</v>
+        <v>125</v>
       </c>
       <c r="M8">
-        <v>762</v>
+        <v>55</v>
       </c>
       <c r="N8">
-        <v>934</v>
+        <v>73</v>
       </c>
       <c r="O8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="P8">
-        <v>1308</v>
+        <v>69</v>
       </c>
       <c r="Q8">
-        <v>2633</v>
+        <v>219</v>
       </c>
       <c r="R8">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="S8">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>1064</v>
+        <v>76</v>
       </c>
       <c r="U8">
-        <v>1586</v>
+        <v>116</v>
       </c>
       <c r="V8">
-        <v>3710</v>
+        <v>308</v>
       </c>
       <c r="W8">
-        <v>0.403</v>
+        <v>0.38</v>
       </c>
       <c r="X8">
-        <v>0.344</v>
+        <v>0.328</v>
       </c>
       <c r="Y8">
-        <v>0.8159999999999999</v>
+        <v>0.753</v>
       </c>
       <c r="Z8">
-        <v>25.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA8">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB8">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AC8">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD8" t="s">
         <v>132</v>
@@ -1523,76 +1523,73 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="H9">
-        <v>1614</v>
+        <v>595</v>
       </c>
       <c r="I9">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="J9">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N9">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="O9">
+        <v>54</v>
+      </c>
+      <c r="P9">
         <v>124</v>
       </c>
-      <c r="P9">
-        <v>290</v>
-      </c>
       <c r="Q9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="R9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="S9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="T9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U9">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="V9">
-        <v>394</v>
+        <v>143</v>
       </c>
       <c r="W9">
-        <v>0.444</v>
-      </c>
-      <c r="X9">
-        <v>0.222</v>
+        <v>0.433</v>
       </c>
       <c r="Y9">
-        <v>0.743</v>
+        <v>0.75</v>
       </c>
       <c r="Z9">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="AA9">
         <v>2.7</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AC9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" t="s">
         <v>132</v>
@@ -1615,19 +1612,19 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1002</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1636,49 +1633,46 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.396</v>
-      </c>
-      <c r="Y10">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>9.1</v>
+        <v>3</v>
       </c>
       <c r="AA10">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1704,76 +1698,76 @@
         <v>22</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>613</v>
+      </c>
+      <c r="I11">
+        <v>96</v>
+      </c>
+      <c r="J11">
+        <v>250</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>73</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>77</v>
+      </c>
+      <c r="O11">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>62</v>
+      </c>
+      <c r="Q11">
+        <v>57</v>
+      </c>
+      <c r="R11">
+        <v>13</v>
+      </c>
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="G11">
-        <v>156</v>
-      </c>
-      <c r="H11">
-        <v>2222</v>
-      </c>
-      <c r="I11">
-        <v>409</v>
-      </c>
-      <c r="J11">
-        <v>1013</v>
-      </c>
-      <c r="K11">
-        <v>102</v>
-      </c>
-      <c r="L11">
-        <v>312</v>
-      </c>
-      <c r="M11">
-        <v>220</v>
-      </c>
-      <c r="N11">
-        <v>362</v>
-      </c>
-      <c r="O11">
-        <v>94</v>
-      </c>
-      <c r="P11">
-        <v>198</v>
-      </c>
-      <c r="Q11">
-        <v>186</v>
-      </c>
-      <c r="R11">
-        <v>65</v>
-      </c>
-      <c r="S11">
-        <v>19</v>
-      </c>
       <c r="T11">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="U11">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="V11">
-        <v>1140</v>
+        <v>264</v>
       </c>
       <c r="W11">
-        <v>0.404</v>
+        <v>0.384</v>
       </c>
       <c r="X11">
-        <v>0.327</v>
+        <v>0.301</v>
       </c>
       <c r="Y11">
-        <v>0.608</v>
+        <v>0.649</v>
       </c>
       <c r="Z11">
-        <v>14.2</v>
+        <v>10.6</v>
       </c>
       <c r="AA11">
-        <v>7.3</v>
+        <v>4.6</v>
       </c>
       <c r="AB11">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AC11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="s">
         <v>132</v>
@@ -1796,76 +1790,76 @@
         <v>22</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <v>552</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>122</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>37</v>
+      </c>
+      <c r="M12">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <v>40</v>
+      </c>
+      <c r="O12">
         <v>12</v>
       </c>
-      <c r="G12">
-        <v>786</v>
-      </c>
-      <c r="H12">
-        <v>16013</v>
-      </c>
-      <c r="I12">
-        <v>1881</v>
-      </c>
-      <c r="J12">
-        <v>4617</v>
-      </c>
-      <c r="K12">
-        <v>516</v>
-      </c>
-      <c r="L12">
-        <v>1474</v>
-      </c>
-      <c r="M12">
-        <v>838</v>
-      </c>
-      <c r="N12">
-        <v>1013</v>
-      </c>
-      <c r="O12">
-        <v>208</v>
-      </c>
       <c r="P12">
-        <v>1324</v>
+        <v>48</v>
       </c>
       <c r="Q12">
-        <v>2748</v>
+        <v>95</v>
       </c>
       <c r="R12">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="S12">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>1172</v>
+        <v>50</v>
       </c>
       <c r="U12">
-        <v>1701</v>
+        <v>81</v>
       </c>
       <c r="V12">
-        <v>5116</v>
+        <v>120</v>
       </c>
       <c r="W12">
-        <v>0.407</v>
+        <v>0.328</v>
       </c>
       <c r="X12">
-        <v>0.35</v>
+        <v>0.243</v>
       </c>
       <c r="Y12">
-        <v>0.827</v>
+        <v>0.775</v>
       </c>
       <c r="Z12">
-        <v>20.4</v>
+        <v>11.3</v>
       </c>
       <c r="AA12">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="AB12">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD12" t="s">
         <v>132</v>
@@ -1888,19 +1882,19 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>512</v>
+        <v>370</v>
       </c>
       <c r="I13">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J13">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1909,55 +1903,55 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N13">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O13">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P13">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="R13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T13">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U13">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="V13">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>0.476</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.625</v>
+        <v>0.676</v>
       </c>
       <c r="Z13">
-        <v>10.2</v>
+        <v>14.2</v>
       </c>
       <c r="AA13">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AB13">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD13" t="s">
         <v>132</v>
@@ -1980,73 +1974,73 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>756</v>
+        <v>80</v>
       </c>
       <c r="H14">
-        <v>21417</v>
+        <v>2289</v>
       </c>
       <c r="I14">
-        <v>3103</v>
+        <v>413</v>
       </c>
       <c r="J14">
-        <v>6332</v>
+        <v>809</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>1721</v>
+        <v>231</v>
       </c>
       <c r="N14">
-        <v>2306</v>
+        <v>363</v>
       </c>
       <c r="O14">
-        <v>1834</v>
+        <v>207</v>
       </c>
       <c r="P14">
-        <v>5622</v>
+        <v>598</v>
       </c>
       <c r="Q14">
-        <v>923</v>
+        <v>99</v>
       </c>
       <c r="R14">
-        <v>455</v>
+        <v>49</v>
       </c>
       <c r="S14">
-        <v>561</v>
+        <v>116</v>
       </c>
       <c r="T14">
-        <v>1235</v>
+        <v>163</v>
       </c>
       <c r="U14">
-        <v>2409</v>
+        <v>276</v>
       </c>
       <c r="V14">
-        <v>7933</v>
+        <v>1058</v>
       </c>
       <c r="W14">
-        <v>0.49</v>
+        <v>0.511</v>
       </c>
       <c r="X14">
-        <v>0.214</v>
+        <v>0.25</v>
       </c>
       <c r="Y14">
-        <v>0.746</v>
+        <v>0.636</v>
       </c>
       <c r="Z14">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="AA14">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="AB14">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC14">
         <v>1.2</v>
@@ -2072,73 +2066,73 @@
         <v>23</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>424</v>
+      </c>
+      <c r="I15">
+        <v>68</v>
+      </c>
+      <c r="J15">
+        <v>121</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="G15">
-        <v>133</v>
-      </c>
-      <c r="H15">
-        <v>1395</v>
-      </c>
-      <c r="I15">
-        <v>196</v>
-      </c>
-      <c r="J15">
-        <v>370</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>6</v>
-      </c>
       <c r="M15">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="N15">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="O15">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="P15">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="Q15">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="R15">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="U15">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="V15">
-        <v>467</v>
+        <v>153</v>
       </c>
       <c r="W15">
-        <v>0.53</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X15">
         <v>0.333</v>
       </c>
       <c r="Y15">
-        <v>0.579</v>
+        <v>0.41</v>
       </c>
       <c r="Z15">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA15">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB15">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AC15">
         <v>0.7</v>
@@ -2256,76 +2250,76 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1026</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>34776</v>
+        <v>2678</v>
       </c>
       <c r="I17">
-        <v>6345</v>
+        <v>508</v>
       </c>
       <c r="J17">
-        <v>13126</v>
+        <v>1064</v>
       </c>
       <c r="K17">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>697</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>4228</v>
+        <v>374</v>
       </c>
       <c r="N17">
-        <v>5498</v>
+        <v>511</v>
       </c>
       <c r="O17">
-        <v>1176</v>
+        <v>125</v>
       </c>
       <c r="P17">
-        <v>6169</v>
+        <v>445</v>
       </c>
       <c r="Q17">
-        <v>4252</v>
+        <v>353</v>
       </c>
       <c r="R17">
-        <v>1248</v>
+        <v>124</v>
       </c>
       <c r="S17">
-        <v>576</v>
+        <v>62</v>
       </c>
       <c r="T17">
-        <v>2459</v>
+        <v>202</v>
       </c>
       <c r="U17">
-        <v>2377</v>
+        <v>203</v>
       </c>
       <c r="V17">
-        <v>17137</v>
+        <v>1394</v>
       </c>
       <c r="W17">
-        <v>0.483</v>
+        <v>0.477</v>
       </c>
       <c r="X17">
-        <v>0.314</v>
+        <v>0.148</v>
       </c>
       <c r="Y17">
-        <v>0.769</v>
+        <v>0.732</v>
       </c>
       <c r="Z17">
-        <v>33.9</v>
+        <v>38.3</v>
       </c>
       <c r="AA17">
-        <v>16.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB17">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC17">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="s">
         <v>132</v>
@@ -2437,76 +2431,76 @@
         <v>21</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1208</v>
+        <v>65</v>
       </c>
       <c r="H19">
-        <v>36654</v>
+        <v>2348</v>
       </c>
       <c r="I19">
-        <v>6543</v>
+        <v>455</v>
       </c>
       <c r="J19">
-        <v>13950</v>
+        <v>931</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>3067</v>
+        <v>194</v>
       </c>
       <c r="N19">
-        <v>4014</v>
+        <v>292</v>
       </c>
       <c r="O19">
-        <v>2348</v>
+        <v>184</v>
       </c>
       <c r="P19">
-        <v>7428</v>
+        <v>545</v>
       </c>
       <c r="Q19">
-        <v>2663</v>
+        <v>165</v>
       </c>
       <c r="R19">
-        <v>818</v>
+        <v>52</v>
       </c>
       <c r="S19">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="T19">
-        <v>2469</v>
+        <v>166</v>
       </c>
       <c r="U19">
-        <v>3493</v>
+        <v>236</v>
       </c>
       <c r="V19">
-        <v>16159</v>
+        <v>1104</v>
       </c>
       <c r="W19">
-        <v>0.469</v>
+        <v>0.489</v>
       </c>
       <c r="X19">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.764</v>
+        <v>0.664</v>
       </c>
       <c r="Z19">
-        <v>30.3</v>
+        <v>36.1</v>
       </c>
       <c r="AA19">
-        <v>13.4</v>
+        <v>17</v>
       </c>
       <c r="AB19">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="AC19">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD19" t="s">
         <v>132</v>
@@ -2621,76 +2615,76 @@
         <v>23</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>1981</v>
+      </c>
+      <c r="I21">
+        <v>342</v>
+      </c>
+      <c r="J21">
+        <v>744</v>
+      </c>
+      <c r="K21">
+        <v>91</v>
+      </c>
+      <c r="L21">
+        <v>246</v>
+      </c>
+      <c r="M21">
+        <v>122</v>
+      </c>
+      <c r="N21">
+        <v>169</v>
+      </c>
+      <c r="O21">
+        <v>79</v>
+      </c>
+      <c r="P21">
+        <v>249</v>
+      </c>
+      <c r="Q21">
+        <v>128</v>
+      </c>
+      <c r="R21">
+        <v>131</v>
+      </c>
+      <c r="S21">
+        <v>41</v>
+      </c>
+      <c r="T21">
+        <v>75</v>
+      </c>
+      <c r="U21">
+        <v>175</v>
+      </c>
+      <c r="V21">
+        <v>897</v>
+      </c>
+      <c r="W21">
+        <v>0.46</v>
+      </c>
+      <c r="X21">
+        <v>0.37</v>
+      </c>
+      <c r="Y21">
+        <v>0.722</v>
+      </c>
+      <c r="Z21">
+        <v>31</v>
+      </c>
+      <c r="AA21">
         <v>14</v>
       </c>
-      <c r="G21">
-        <v>954</v>
-      </c>
-      <c r="H21">
-        <v>32778</v>
-      </c>
-      <c r="I21">
-        <v>4932</v>
-      </c>
-      <c r="J21">
-        <v>11286</v>
-      </c>
-      <c r="K21">
-        <v>1546</v>
-      </c>
-      <c r="L21">
-        <v>4147</v>
-      </c>
-      <c r="M21">
-        <v>2745</v>
-      </c>
-      <c r="N21">
-        <v>3394</v>
-      </c>
-      <c r="O21">
-        <v>761</v>
-      </c>
-      <c r="P21">
-        <v>3857</v>
-      </c>
-      <c r="Q21">
-        <v>2812</v>
-      </c>
-      <c r="R21">
-        <v>1620</v>
-      </c>
-      <c r="S21">
-        <v>580</v>
-      </c>
-      <c r="T21">
-        <v>1507</v>
-      </c>
-      <c r="U21">
-        <v>2483</v>
-      </c>
-      <c r="V21">
-        <v>14155</v>
-      </c>
-      <c r="W21">
-        <v>0.437</v>
-      </c>
-      <c r="X21">
-        <v>0.373</v>
-      </c>
-      <c r="Y21">
-        <v>0.8090000000000001</v>
-      </c>
-      <c r="Z21">
-        <v>34.4</v>
-      </c>
-      <c r="AA21">
-        <v>14.8</v>
-      </c>
       <c r="AB21">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AC21">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="s">
         <v>132</v>
@@ -2713,76 +2707,76 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1391</v>
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>50111</v>
+        <v>2668</v>
       </c>
       <c r="I22">
-        <v>6219</v>
+        <v>330</v>
       </c>
       <c r="J22">
-        <v>15557</v>
+        <v>857</v>
       </c>
       <c r="K22">
-        <v>1988</v>
+        <v>70</v>
       </c>
       <c r="L22">
-        <v>5701</v>
+        <v>257</v>
       </c>
       <c r="M22">
-        <v>3103</v>
+        <v>192</v>
       </c>
       <c r="N22">
-        <v>3954</v>
+        <v>275</v>
       </c>
       <c r="O22">
-        <v>1768</v>
+        <v>152</v>
       </c>
       <c r="P22">
-        <v>8725</v>
+        <v>430</v>
       </c>
       <c r="Q22">
-        <v>12091</v>
+        <v>607</v>
       </c>
       <c r="R22">
-        <v>2684</v>
+        <v>151</v>
       </c>
       <c r="S22">
-        <v>450</v>
+        <v>24</v>
       </c>
       <c r="T22">
-        <v>4003</v>
+        <v>250</v>
       </c>
       <c r="U22">
-        <v>2572</v>
+        <v>146</v>
       </c>
       <c r="V22">
-        <v>17529</v>
+        <v>922</v>
       </c>
       <c r="W22">
-        <v>0.4</v>
+        <v>0.385</v>
       </c>
       <c r="X22">
-        <v>0.349</v>
+        <v>0.272</v>
       </c>
       <c r="Y22">
-        <v>0.785</v>
+        <v>0.698</v>
       </c>
       <c r="Z22">
-        <v>36</v>
+        <v>33.8</v>
       </c>
       <c r="AA22">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
       <c r="AB22">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="AC22">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="AD22" t="s">
         <v>132</v>
@@ -2805,76 +2799,73 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>1395</v>
+        <v>53</v>
       </c>
       <c r="I23">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="V23">
-        <v>329</v>
+        <v>11</v>
       </c>
       <c r="W23">
-        <v>0.455</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y23">
-        <v>0.719</v>
+        <v>0.75</v>
       </c>
       <c r="Z23">
-        <v>9.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="AA23">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="AB23">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC23">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" t="s">
         <v>132</v>
@@ -2989,76 +2980,76 @@
         <v>21</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>957</v>
+        <v>72</v>
       </c>
       <c r="H25">
-        <v>25027</v>
+        <v>2086</v>
       </c>
       <c r="I25">
-        <v>4096</v>
+        <v>345</v>
       </c>
       <c r="J25">
-        <v>9410</v>
+        <v>876</v>
       </c>
       <c r="K25">
-        <v>902</v>
+        <v>69</v>
       </c>
       <c r="L25">
-        <v>2578</v>
+        <v>243</v>
       </c>
       <c r="M25">
-        <v>1622</v>
+        <v>147</v>
       </c>
       <c r="N25">
-        <v>2219</v>
+        <v>222</v>
       </c>
       <c r="O25">
-        <v>1898</v>
+        <v>137</v>
       </c>
       <c r="P25">
-        <v>6376</v>
+        <v>405</v>
       </c>
       <c r="Q25">
-        <v>1305</v>
+        <v>105</v>
       </c>
       <c r="R25">
-        <v>790</v>
+        <v>45</v>
       </c>
       <c r="S25">
-        <v>848</v>
+        <v>88</v>
       </c>
       <c r="T25">
-        <v>1292</v>
+        <v>115</v>
       </c>
       <c r="U25">
-        <v>2173</v>
+        <v>157</v>
       </c>
       <c r="V25">
-        <v>10716</v>
+        <v>906</v>
       </c>
       <c r="W25">
-        <v>0.435</v>
+        <v>0.394</v>
       </c>
       <c r="X25">
-        <v>0.35</v>
+        <v>0.284</v>
       </c>
       <c r="Y25">
-        <v>0.731</v>
+        <v>0.662</v>
       </c>
       <c r="Z25">
-        <v>26.2</v>
+        <v>29</v>
       </c>
       <c r="AA25">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="AB25">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD25" t="s">
         <v>132</v>
@@ -3081,76 +3072,76 @@
         <v>23</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>514</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>9165</v>
+        <v>803</v>
       </c>
       <c r="I26">
-        <v>1186</v>
+        <v>95</v>
       </c>
       <c r="J26">
-        <v>3108</v>
+        <v>233</v>
       </c>
       <c r="K26">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>1030</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>803</v>
+        <v>57</v>
       </c>
       <c r="N26">
-        <v>952</v>
+        <v>65</v>
       </c>
       <c r="O26">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="P26">
-        <v>588</v>
+        <v>64</v>
       </c>
       <c r="Q26">
-        <v>1475</v>
+        <v>133</v>
       </c>
       <c r="R26">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="S26">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>631</v>
+        <v>62</v>
       </c>
       <c r="U26">
-        <v>894</v>
+        <v>88</v>
       </c>
       <c r="V26">
-        <v>3525</v>
+        <v>254</v>
       </c>
       <c r="W26">
-        <v>0.382</v>
+        <v>0.408</v>
       </c>
       <c r="X26">
-        <v>0.34</v>
+        <v>0.184</v>
       </c>
       <c r="Y26">
-        <v>0.843</v>
+        <v>0.877</v>
       </c>
       <c r="Z26">
-        <v>17.8</v>
+        <v>23.6</v>
       </c>
       <c r="AA26">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB26">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AC26">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="s">
         <v>132</v>
@@ -3173,76 +3164,73 @@
         <v>22</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>401</v>
+        <v>55</v>
       </c>
       <c r="H27">
-        <v>5927</v>
+        <v>534</v>
       </c>
       <c r="I27">
-        <v>423</v>
+        <v>34</v>
       </c>
       <c r="J27">
-        <v>948</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>41</v>
+      </c>
+      <c r="O27">
+        <v>40</v>
+      </c>
+      <c r="P27">
+        <v>105</v>
+      </c>
+      <c r="Q27">
         <v>10</v>
       </c>
-      <c r="M27">
-        <v>225</v>
-      </c>
-      <c r="N27">
-        <v>408</v>
-      </c>
-      <c r="O27">
-        <v>479</v>
-      </c>
-      <c r="P27">
-        <v>1243</v>
-      </c>
-      <c r="Q27">
-        <v>105</v>
-      </c>
       <c r="R27">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>691</v>
+        <v>60</v>
       </c>
       <c r="T27">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="U27">
-        <v>1052</v>
+        <v>95</v>
       </c>
       <c r="V27">
-        <v>1072</v>
+        <v>96</v>
       </c>
       <c r="W27">
-        <v>0.446</v>
-      </c>
-      <c r="X27">
-        <v>0.1</v>
+        <v>0.479</v>
       </c>
       <c r="Y27">
-        <v>0.551</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Z27">
-        <v>14.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA27">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AB27">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AC27">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD27" t="s">
         <v>132</v>
@@ -3265,76 +3253,76 @@
         <v>22</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>793</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>19156</v>
+        <v>827</v>
       </c>
       <c r="I28">
-        <v>2265</v>
+        <v>116</v>
       </c>
       <c r="J28">
-        <v>5177</v>
+        <v>261</v>
       </c>
       <c r="K28">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="L28">
-        <v>1109</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>953</v>
+        <v>50</v>
       </c>
       <c r="N28">
-        <v>1224</v>
+        <v>73</v>
       </c>
       <c r="O28">
-        <v>482</v>
+        <v>35</v>
       </c>
       <c r="P28">
-        <v>2587</v>
+        <v>129</v>
       </c>
       <c r="Q28">
-        <v>2126</v>
+        <v>89</v>
       </c>
       <c r="R28">
-        <v>912</v>
+        <v>36</v>
       </c>
       <c r="S28">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="T28">
-        <v>1059</v>
+        <v>39</v>
       </c>
       <c r="U28">
-        <v>1588</v>
+        <v>97</v>
       </c>
       <c r="V28">
-        <v>5871</v>
+        <v>293</v>
       </c>
       <c r="W28">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="X28">
-        <v>0.35</v>
+        <v>0.393</v>
       </c>
       <c r="Y28">
-        <v>0.779</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="Z28">
-        <v>24.2</v>
+        <v>18.4</v>
       </c>
       <c r="AA28">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB28">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AC28">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AD28" t="s">
         <v>132</v>
@@ -3357,76 +3345,76 @@
         <v>23</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="H29">
-        <v>1637</v>
+        <v>527</v>
       </c>
       <c r="I29">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="J29">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="N29">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="O29">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="P29">
-        <v>488</v>
+        <v>152</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="R29">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="S29">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="T29">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="U29">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="V29">
-        <v>510</v>
+        <v>189</v>
       </c>
       <c r="W29">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="X29">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Y29">
-        <v>0.576</v>
+        <v>0.618</v>
       </c>
       <c r="Z29">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AA29">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="AB29">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC29">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD29" t="s">
         <v>132</v>
@@ -3449,76 +3437,76 @@
         <v>23</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c r="H30">
-        <v>5144</v>
+        <v>945</v>
       </c>
       <c r="I30">
-        <v>794</v>
+        <v>155</v>
       </c>
       <c r="J30">
-        <v>1662</v>
+        <v>301</v>
       </c>
       <c r="K30">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="M30">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="N30">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="O30">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="P30">
-        <v>741</v>
+        <v>137</v>
       </c>
       <c r="Q30">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="R30">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="S30">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="T30">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="U30">
-        <v>464</v>
+        <v>89</v>
       </c>
       <c r="V30">
-        <v>1902</v>
+        <v>377</v>
       </c>
       <c r="W30">
-        <v>0.478</v>
+        <v>0.515</v>
       </c>
       <c r="X30">
-        <v>0.226</v>
+        <v>0.167</v>
       </c>
       <c r="Y30">
-        <v>0.767</v>
+        <v>0.833</v>
       </c>
       <c r="Z30">
-        <v>18.6</v>
+        <v>15</v>
       </c>
       <c r="AA30">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AB30">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AC30">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="s">
         <v>132</v>
@@ -3541,73 +3529,73 @@
         <v>24</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H31">
-        <v>1570</v>
+        <v>587</v>
       </c>
       <c r="I31">
+        <v>78</v>
+      </c>
+      <c r="J31">
+        <v>132</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>22</v>
+      </c>
+      <c r="N31">
+        <v>45</v>
+      </c>
+      <c r="O31">
+        <v>55</v>
+      </c>
+      <c r="P31">
+        <v>153</v>
+      </c>
+      <c r="Q31">
+        <v>21</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>27</v>
+      </c>
+      <c r="T31">
+        <v>24</v>
+      </c>
+      <c r="U31">
+        <v>63</v>
+      </c>
+      <c r="V31">
         <v>180</v>
       </c>
-      <c r="J31">
-        <v>333</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-      <c r="M31">
-        <v>77</v>
-      </c>
-      <c r="N31">
-        <v>162</v>
-      </c>
-      <c r="O31">
-        <v>139</v>
-      </c>
-      <c r="P31">
-        <v>351</v>
-      </c>
-      <c r="Q31">
-        <v>57</v>
-      </c>
-      <c r="R31">
-        <v>27</v>
-      </c>
-      <c r="S31">
-        <v>61</v>
-      </c>
-      <c r="T31">
-        <v>103</v>
-      </c>
-      <c r="U31">
-        <v>194</v>
-      </c>
-      <c r="V31">
-        <v>440</v>
-      </c>
       <c r="W31">
-        <v>0.541</v>
+        <v>0.591</v>
       </c>
       <c r="X31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>0.475</v>
+        <v>0.489</v>
       </c>
       <c r="Z31">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="AA31">
         <v>3.9</v>
       </c>
       <c r="AB31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC31">
         <v>0.5</v>
@@ -3633,76 +3621,76 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="H32">
-        <v>8479</v>
+        <v>2315</v>
       </c>
       <c r="I32">
-        <v>891</v>
+        <v>307</v>
       </c>
       <c r="J32">
-        <v>1819</v>
+        <v>575</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="N32">
-        <v>604</v>
+        <v>263</v>
       </c>
       <c r="O32">
-        <v>716</v>
+        <v>196</v>
       </c>
       <c r="P32">
-        <v>2159</v>
+        <v>566</v>
       </c>
       <c r="Q32">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="R32">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="S32">
-        <v>275</v>
+        <v>61</v>
       </c>
       <c r="T32">
-        <v>405</v>
+        <v>112</v>
       </c>
       <c r="U32">
-        <v>1270</v>
+        <v>299</v>
       </c>
       <c r="V32">
-        <v>2071</v>
+        <v>781</v>
       </c>
       <c r="W32">
-        <v>0.49</v>
+        <v>0.534</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.478</v>
+        <v>0.635</v>
       </c>
       <c r="Z32">
-        <v>18.2</v>
+        <v>29.7</v>
       </c>
       <c r="AA32">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="AB32">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="AC32">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD32" t="s">
         <v>132</v>
@@ -3817,76 +3805,76 @@
         <v>21</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>736</v>
+        <v>81</v>
       </c>
       <c r="H34">
-        <v>18477</v>
+        <v>2556</v>
       </c>
       <c r="I34">
-        <v>3137</v>
+        <v>439</v>
       </c>
       <c r="J34">
-        <v>7301</v>
+        <v>1093</v>
       </c>
       <c r="K34">
-        <v>528</v>
+        <v>65</v>
       </c>
       <c r="L34">
-        <v>1466</v>
+        <v>218</v>
       </c>
       <c r="M34">
-        <v>1484</v>
+        <v>199</v>
       </c>
       <c r="N34">
-        <v>1955</v>
+        <v>264</v>
       </c>
       <c r="O34">
-        <v>936</v>
+        <v>132</v>
       </c>
       <c r="P34">
-        <v>3033</v>
+        <v>354</v>
       </c>
       <c r="Q34">
-        <v>978</v>
+        <v>133</v>
       </c>
       <c r="R34">
-        <v>684</v>
+        <v>72</v>
       </c>
       <c r="S34">
-        <v>319</v>
+        <v>55</v>
       </c>
       <c r="T34">
-        <v>1207</v>
+        <v>163</v>
       </c>
       <c r="U34">
-        <v>1471</v>
+        <v>180</v>
       </c>
       <c r="V34">
-        <v>8286</v>
+        <v>1142</v>
       </c>
       <c r="W34">
-        <v>0.43</v>
+        <v>0.402</v>
       </c>
       <c r="X34">
-        <v>0.36</v>
+        <v>0.298</v>
       </c>
       <c r="Y34">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="Z34">
-        <v>25.1</v>
+        <v>31.6</v>
       </c>
       <c r="AA34">
-        <v>11.3</v>
+        <v>14.1</v>
       </c>
       <c r="AB34">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AC34">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD34" t="s">
         <v>132</v>
@@ -3909,76 +3897,73 @@
         <v>24</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>1430</v>
+        <v>331</v>
       </c>
       <c r="I35">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="J35">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N35">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="O35">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="P35">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="R35">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="S35">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="T35">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="U35">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="V35">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="W35">
-        <v>0.394</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
+        <v>0.356</v>
       </c>
       <c r="Y35">
-        <v>0.433</v>
+        <v>0.364</v>
       </c>
       <c r="Z35">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB35">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AC35">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD35" t="s">
         <v>132</v>
@@ -4090,76 +4075,76 @@
         <v>23</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>733</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>20727</v>
+        <v>1800</v>
       </c>
       <c r="I37">
-        <v>3128</v>
+        <v>309</v>
       </c>
       <c r="J37">
-        <v>6843</v>
+        <v>638</v>
       </c>
       <c r="K37">
-        <v>1150</v>
+        <v>116</v>
       </c>
       <c r="L37">
-        <v>2754</v>
+        <v>266</v>
       </c>
       <c r="M37">
-        <v>786</v>
+        <v>80</v>
       </c>
       <c r="N37">
-        <v>1010</v>
+        <v>101</v>
       </c>
       <c r="O37">
-        <v>423</v>
+        <v>67</v>
       </c>
       <c r="P37">
-        <v>2402</v>
+        <v>201</v>
       </c>
       <c r="Q37">
-        <v>1234</v>
+        <v>105</v>
       </c>
       <c r="R37">
-        <v>579</v>
+        <v>48</v>
       </c>
       <c r="S37">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="T37">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="U37">
-        <v>965</v>
+        <v>149</v>
       </c>
       <c r="V37">
-        <v>8192</v>
+        <v>814</v>
       </c>
       <c r="W37">
-        <v>0.457</v>
+        <v>0.484</v>
       </c>
       <c r="X37">
-        <v>0.418</v>
+        <v>0.436</v>
       </c>
       <c r="Y37">
-        <v>0.778</v>
+        <v>0.792</v>
       </c>
       <c r="Z37">
-        <v>28.3</v>
+        <v>23.1</v>
       </c>
       <c r="AA37">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="AB37">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="AC37">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD37" t="s">
         <v>132</v>
@@ -4271,73 +4256,73 @@
         <v>24</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>789</v>
+        <v>81</v>
       </c>
       <c r="H39">
-        <v>14613</v>
+        <v>1208</v>
       </c>
       <c r="I39">
-        <v>2044</v>
+        <v>201</v>
       </c>
       <c r="J39">
-        <v>4711</v>
+        <v>456</v>
       </c>
       <c r="K39">
-        <v>865</v>
+        <v>74</v>
       </c>
       <c r="L39">
-        <v>2168</v>
+        <v>198</v>
       </c>
       <c r="M39">
-        <v>966</v>
+        <v>90</v>
       </c>
       <c r="N39">
-        <v>1152</v>
+        <v>115</v>
       </c>
       <c r="O39">
-        <v>508</v>
+        <v>63</v>
       </c>
       <c r="P39">
-        <v>1716</v>
+        <v>133</v>
       </c>
       <c r="Q39">
-        <v>778</v>
+        <v>77</v>
       </c>
       <c r="R39">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="S39">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="T39">
-        <v>628</v>
+        <v>63</v>
       </c>
       <c r="U39">
-        <v>1152</v>
+        <v>150</v>
       </c>
       <c r="V39">
-        <v>5919</v>
+        <v>566</v>
       </c>
       <c r="W39">
-        <v>0.434</v>
+        <v>0.441</v>
       </c>
       <c r="X39">
-        <v>0.399</v>
+        <v>0.374</v>
       </c>
       <c r="Y39">
-        <v>0.839</v>
+        <v>0.783</v>
       </c>
       <c r="Z39">
-        <v>18.5</v>
+        <v>14.9</v>
       </c>
       <c r="AA39">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB39">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AC39">
         <v>1</v>
@@ -4363,76 +4348,76 @@
         <v>27</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>5121</v>
+        <v>13</v>
       </c>
       <c r="I40">
-        <v>629</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1478</v>
+        <v>6</v>
       </c>
       <c r="K40">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>584</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="Q40">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="S40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>305</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1732</v>
+        <v>6</v>
       </c>
       <c r="W40">
-        <v>0.426</v>
+        <v>0.167</v>
       </c>
       <c r="X40">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.887</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>17.3</v>
+        <v>4.3</v>
       </c>
       <c r="AA40">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="AB40">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC40">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD40" t="s">
         <v>132</v>
@@ -4455,76 +4440,76 @@
         <v>22</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="H41">
-        <v>5837</v>
+        <v>1462</v>
       </c>
       <c r="I41">
-        <v>744</v>
+        <v>206</v>
       </c>
       <c r="J41">
-        <v>1788</v>
+        <v>465</v>
       </c>
       <c r="K41">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c r="L41">
-        <v>647</v>
+        <v>171</v>
       </c>
       <c r="M41">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="N41">
-        <v>597</v>
+        <v>196</v>
       </c>
       <c r="O41">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="P41">
-        <v>580</v>
+        <v>186</v>
       </c>
       <c r="Q41">
-        <v>886</v>
+        <v>288</v>
       </c>
       <c r="R41">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="S41">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="T41">
-        <v>446</v>
+        <v>132</v>
       </c>
       <c r="U41">
-        <v>629</v>
+        <v>139</v>
       </c>
       <c r="V41">
-        <v>2167</v>
+        <v>619</v>
       </c>
       <c r="W41">
-        <v>0.416</v>
+        <v>0.443</v>
       </c>
       <c r="X41">
-        <v>0.363</v>
+        <v>0.392</v>
       </c>
       <c r="Y41">
-        <v>0.744</v>
+        <v>0.714</v>
       </c>
       <c r="Z41">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="AA41">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB41">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AC41">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD41" t="s">
         <v>132</v>
@@ -4547,76 +4532,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="H42">
-        <v>25346</v>
+        <v>2958</v>
       </c>
       <c r="I42">
-        <v>5571</v>
+        <v>636</v>
       </c>
       <c r="J42">
-        <v>12129</v>
+        <v>1410</v>
       </c>
       <c r="K42">
-        <v>620</v>
+        <v>86</v>
       </c>
       <c r="L42">
-        <v>1823</v>
+        <v>268</v>
       </c>
       <c r="M42">
-        <v>2472</v>
+        <v>397</v>
       </c>
       <c r="N42">
-        <v>3016</v>
+        <v>499</v>
       </c>
       <c r="O42">
-        <v>1027</v>
+        <v>169</v>
       </c>
       <c r="P42">
-        <v>4189</v>
+        <v>513</v>
       </c>
       <c r="Q42">
-        <v>1879</v>
+        <v>197</v>
       </c>
       <c r="R42">
-        <v>826</v>
+        <v>115</v>
       </c>
       <c r="S42">
-        <v>389</v>
+        <v>22</v>
       </c>
       <c r="T42">
-        <v>2147</v>
+        <v>313</v>
       </c>
       <c r="U42">
-        <v>1847</v>
+        <v>234</v>
       </c>
       <c r="V42">
-        <v>14234</v>
+        <v>1755</v>
       </c>
       <c r="W42">
-        <v>0.459</v>
+        <v>0.451</v>
       </c>
       <c r="X42">
-        <v>0.34</v>
+        <v>0.321</v>
       </c>
       <c r="Y42">
-        <v>0.82</v>
+        <v>0.796</v>
       </c>
       <c r="Z42">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="AA42">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="AB42">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AC42">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD42" t="s">
         <v>132</v>
@@ -4639,76 +4624,76 @@
         <v>23</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="H43">
-        <v>5654</v>
+        <v>1017</v>
       </c>
       <c r="I43">
-        <v>888</v>
+        <v>180</v>
       </c>
       <c r="J43">
-        <v>1658</v>
+        <v>340</v>
       </c>
       <c r="K43">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>76</v>
+      </c>
+      <c r="N43">
+        <v>146</v>
+      </c>
+      <c r="O43">
+        <v>108</v>
+      </c>
+      <c r="P43">
+        <v>278</v>
+      </c>
+      <c r="Q43">
+        <v>37</v>
+      </c>
+      <c r="R43">
+        <v>22</v>
+      </c>
+      <c r="S43">
+        <v>52</v>
+      </c>
+      <c r="T43">
+        <v>84</v>
+      </c>
+      <c r="U43">
         <v>124</v>
       </c>
-      <c r="M43">
-        <v>388</v>
-      </c>
-      <c r="N43">
-        <v>690</v>
-      </c>
-      <c r="O43">
-        <v>503</v>
-      </c>
-      <c r="P43">
-        <v>1272</v>
-      </c>
-      <c r="Q43">
-        <v>182</v>
-      </c>
-      <c r="R43">
-        <v>128</v>
-      </c>
-      <c r="S43">
-        <v>235</v>
-      </c>
-      <c r="T43">
-        <v>297</v>
-      </c>
-      <c r="U43">
-        <v>515</v>
-      </c>
       <c r="V43">
-        <v>2196</v>
+        <v>438</v>
       </c>
       <c r="W43">
-        <v>0.536</v>
+        <v>0.529</v>
       </c>
       <c r="X43">
-        <v>0.258</v>
+        <v>0.143</v>
       </c>
       <c r="Y43">
-        <v>0.5620000000000001</v>
+        <v>0.521</v>
       </c>
       <c r="Z43">
-        <v>19</v>
+        <v>20.8</v>
       </c>
       <c r="AA43">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="AB43">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC43">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD43" t="s">
         <v>132</v>
@@ -4731,76 +4716,76 @@
         <v>22</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>923</v>
+        <v>81</v>
       </c>
       <c r="H44">
-        <v>27925</v>
+        <v>1798</v>
       </c>
       <c r="I44">
-        <v>4852</v>
+        <v>227</v>
       </c>
       <c r="J44">
-        <v>10945</v>
+        <v>500</v>
       </c>
       <c r="K44">
-        <v>746</v>
+        <v>36</v>
       </c>
       <c r="L44">
-        <v>2102</v>
+        <v>114</v>
       </c>
       <c r="M44">
-        <v>2770</v>
+        <v>173</v>
       </c>
       <c r="N44">
-        <v>3457</v>
+        <v>234</v>
       </c>
       <c r="O44">
-        <v>491</v>
+        <v>57</v>
       </c>
       <c r="P44">
-        <v>3193</v>
+        <v>217</v>
       </c>
       <c r="Q44">
-        <v>3527</v>
+        <v>389</v>
       </c>
       <c r="R44">
-        <v>729</v>
+        <v>65</v>
       </c>
       <c r="S44">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="T44">
-        <v>2102</v>
+        <v>160</v>
       </c>
       <c r="U44">
-        <v>2408</v>
+        <v>206</v>
       </c>
       <c r="V44">
-        <v>13220</v>
+        <v>663</v>
       </c>
       <c r="W44">
-        <v>0.443</v>
+        <v>0.454</v>
       </c>
       <c r="X44">
-        <v>0.355</v>
+        <v>0.316</v>
       </c>
       <c r="Y44">
-        <v>0.801</v>
+        <v>0.739</v>
       </c>
       <c r="Z44">
-        <v>30.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA44">
-        <v>14.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB44">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC44">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AD44" t="s">
         <v>132</v>
@@ -4823,76 +4808,76 @@
         <v>22</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="H45">
-        <v>2984</v>
+        <v>1494</v>
       </c>
       <c r="I45">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="J45">
-        <v>705</v>
+        <v>390</v>
       </c>
       <c r="K45">
         <v>2</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="N45">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="O45">
-        <v>376</v>
+        <v>200</v>
       </c>
       <c r="P45">
-        <v>897</v>
+        <v>486</v>
       </c>
       <c r="Q45">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="R45">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="S45">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="T45">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="U45">
-        <v>435</v>
+        <v>196</v>
       </c>
       <c r="V45">
-        <v>827</v>
+        <v>448</v>
       </c>
       <c r="W45">
-        <v>0.496</v>
+        <v>0.485</v>
       </c>
       <c r="X45">
-        <v>0.182</v>
+        <v>0.286</v>
       </c>
       <c r="Y45">
-        <v>0.465</v>
+        <v>0.447</v>
       </c>
       <c r="Z45">
-        <v>17.2</v>
+        <v>22.6</v>
       </c>
       <c r="AA45">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="AB45">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC45">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD45" t="s">
         <v>132</v>
@@ -4915,76 +4900,76 @@
         <v>24</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>49</v>
+      </c>
+      <c r="H46">
+        <v>319</v>
+      </c>
+      <c r="I46">
+        <v>84</v>
+      </c>
+      <c r="J46">
+        <v>197</v>
+      </c>
+      <c r="K46">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>99</v>
+      </c>
+      <c r="M46">
+        <v>27</v>
+      </c>
+      <c r="N46">
+        <v>38</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>23</v>
+      </c>
+      <c r="Q46">
+        <v>48</v>
+      </c>
+      <c r="R46">
+        <v>14</v>
+      </c>
+      <c r="S46">
         <v>2</v>
       </c>
-      <c r="G46">
-        <v>110</v>
-      </c>
-      <c r="H46">
-        <v>1870</v>
-      </c>
-      <c r="I46">
-        <v>347</v>
-      </c>
-      <c r="J46">
-        <v>845</v>
-      </c>
-      <c r="K46">
-        <v>142</v>
-      </c>
-      <c r="L46">
-        <v>383</v>
-      </c>
-      <c r="M46">
-        <v>175</v>
-      </c>
-      <c r="N46">
-        <v>220</v>
-      </c>
-      <c r="O46">
-        <v>29</v>
-      </c>
-      <c r="P46">
-        <v>155</v>
-      </c>
-      <c r="Q46">
-        <v>317</v>
-      </c>
-      <c r="R46">
-        <v>57</v>
-      </c>
-      <c r="S46">
-        <v>4</v>
-      </c>
       <c r="T46">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="U46">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="V46">
-        <v>1011</v>
+        <v>233</v>
       </c>
       <c r="W46">
-        <v>0.411</v>
+        <v>0.426</v>
       </c>
       <c r="X46">
-        <v>0.371</v>
+        <v>0.384</v>
       </c>
       <c r="Y46">
-        <v>0.795</v>
+        <v>0.711</v>
       </c>
       <c r="Z46">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AA46">
-        <v>9.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="AB46">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC46">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="s">
         <v>132</v>
@@ -5007,76 +4992,73 @@
         <v>22</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>59</v>
+      </c>
+      <c r="H47">
+        <v>586</v>
+      </c>
+      <c r="I47">
+        <v>78</v>
+      </c>
+      <c r="J47">
+        <v>184</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+      <c r="N47">
+        <v>72</v>
+      </c>
+      <c r="O47">
+        <v>60</v>
+      </c>
+      <c r="P47">
+        <v>151</v>
+      </c>
+      <c r="Q47">
+        <v>37</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
         <v>7</v>
       </c>
-      <c r="G47">
-        <v>327</v>
-      </c>
-      <c r="H47">
-        <v>5201</v>
-      </c>
-      <c r="I47">
-        <v>495</v>
-      </c>
-      <c r="J47">
-        <v>1124</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>9</v>
-      </c>
-      <c r="M47">
-        <v>396</v>
-      </c>
-      <c r="N47">
-        <v>641</v>
-      </c>
-      <c r="O47">
-        <v>423</v>
-      </c>
-      <c r="P47">
-        <v>1187</v>
-      </c>
-      <c r="Q47">
-        <v>305</v>
-      </c>
-      <c r="R47">
-        <v>91</v>
-      </c>
-      <c r="S47">
-        <v>60</v>
-      </c>
       <c r="T47">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="U47">
-        <v>593</v>
+        <v>72</v>
       </c>
       <c r="V47">
-        <v>1388</v>
+        <v>206</v>
       </c>
       <c r="W47">
-        <v>0.44</v>
-      </c>
-      <c r="X47">
-        <v>0.222</v>
+        <v>0.424</v>
       </c>
       <c r="Y47">
-        <v>0.618</v>
+        <v>0.694</v>
       </c>
       <c r="Z47">
-        <v>15.9</v>
+        <v>9.9</v>
       </c>
       <c r="AA47">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AB47">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AC47">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD47" t="s">
         <v>132</v>
@@ -5099,76 +5081,73 @@
         <v>24</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="H48">
-        <v>3513</v>
+        <v>236</v>
       </c>
       <c r="I48">
-        <v>502</v>
+        <v>40</v>
       </c>
       <c r="J48">
-        <v>1037</v>
+        <v>81</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>446</v>
+        <v>40</v>
       </c>
       <c r="N48">
-        <v>709</v>
+        <v>55</v>
       </c>
       <c r="O48">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="P48">
-        <v>768</v>
+        <v>57</v>
       </c>
       <c r="Q48">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="R48">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="S48">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="T48">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="U48">
-        <v>503</v>
+        <v>47</v>
       </c>
       <c r="V48">
-        <v>1450</v>
+        <v>120</v>
       </c>
       <c r="W48">
-        <v>0.484</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
+        <v>0.494</v>
       </c>
       <c r="Y48">
-        <v>0.629</v>
+        <v>0.727</v>
       </c>
       <c r="Z48">
-        <v>13.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA48">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="AB48">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AC48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD48" t="s">
         <v>132</v>
@@ -5191,76 +5170,76 @@
         <v>22</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="H49">
-        <v>10552</v>
+        <v>1736</v>
       </c>
       <c r="I49">
-        <v>950</v>
+        <v>220</v>
       </c>
       <c r="J49">
-        <v>1767</v>
+        <v>406</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>626</v>
+        <v>127</v>
       </c>
       <c r="N49">
-        <v>1183</v>
+        <v>262</v>
       </c>
       <c r="O49">
-        <v>1122</v>
+        <v>174</v>
       </c>
       <c r="P49">
-        <v>3193</v>
+        <v>486</v>
       </c>
       <c r="Q49">
-        <v>661</v>
+        <v>67</v>
       </c>
       <c r="R49">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="S49">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="T49">
-        <v>526</v>
+        <v>106</v>
       </c>
       <c r="U49">
-        <v>1137</v>
+        <v>235</v>
       </c>
       <c r="V49">
-        <v>2527</v>
+        <v>567</v>
       </c>
       <c r="W49">
-        <v>0.538</v>
+        <v>0.542</v>
       </c>
       <c r="X49">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>0.529</v>
+        <v>0.485</v>
       </c>
       <c r="Z49">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA49">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB49">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="AC49">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD49" t="s">
         <v>132</v>
@@ -5283,76 +5262,73 @@
         <v>24</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>281</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>3415</v>
+        <v>9</v>
       </c>
       <c r="I50">
-        <v>539</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1105</v>
+        <v>3</v>
       </c>
       <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
         <v>2</v>
       </c>
-      <c r="L50">
-        <v>9</v>
-      </c>
-      <c r="M50">
-        <v>201</v>
-      </c>
-      <c r="N50">
-        <v>301</v>
-      </c>
       <c r="O50">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="P50">
-        <v>771</v>
+        <v>4</v>
       </c>
       <c r="Q50">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>1281</v>
+        <v>3</v>
       </c>
       <c r="W50">
-        <v>0.488</v>
-      </c>
-      <c r="X50">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="Y50">
-        <v>0.668</v>
+        <v>0.5</v>
       </c>
       <c r="Z50">
-        <v>12.2</v>
+        <v>2.3</v>
       </c>
       <c r="AA50">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="s">
         <v>132</v>
@@ -5464,76 +5440,76 @@
         <v>24</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>3607</v>
+        <v>182</v>
       </c>
       <c r="I52">
-        <v>537</v>
+        <v>24</v>
       </c>
       <c r="J52">
-        <v>1062</v>
+        <v>53</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="N52">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="O52">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="P52">
-        <v>883</v>
+        <v>57</v>
       </c>
       <c r="Q52">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="R52">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="T52">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="U52">
-        <v>577</v>
+        <v>37</v>
       </c>
       <c r="V52">
-        <v>1233</v>
+        <v>75</v>
       </c>
       <c r="W52">
-        <v>0.506</v>
+        <v>0.453</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0.525</v>
+        <v>0.614</v>
       </c>
       <c r="Z52">
-        <v>14.6</v>
+        <v>4.9</v>
       </c>
       <c r="AA52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB52">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC52">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AD52" t="s">
         <v>132</v>
@@ -5556,76 +5532,76 @@
         <v>24</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1714</v>
+        <v>246</v>
       </c>
       <c r="I53">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="J53">
-        <v>679</v>
+        <v>114</v>
       </c>
       <c r="K53">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="L53">
-        <v>396</v>
+        <v>58</v>
       </c>
       <c r="M53">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="N53">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="O53">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="P53">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="Q53">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="R53">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="U53">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="V53">
-        <v>760</v>
+        <v>116</v>
       </c>
       <c r="W53">
-        <v>0.409</v>
+        <v>0.395</v>
       </c>
       <c r="X53">
-        <v>0.376</v>
+        <v>0.31</v>
       </c>
       <c r="Y53">
-        <v>0.647</v>
+        <v>0.667</v>
       </c>
       <c r="Z53">
-        <v>10.2</v>
+        <v>6.5</v>
       </c>
       <c r="AA53">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB53">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AC53">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD53" t="s">
         <v>132</v>
@@ -5832,76 +5808,76 @@
         <v>24</v>
       </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>27</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>7</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>13</v>
-      </c>
-      <c r="H56">
-        <v>67</v>
-      </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-      <c r="J56">
-        <v>24</v>
-      </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
-      <c r="L56">
-        <v>13</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>3</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>6</v>
-      </c>
       <c r="U56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V56">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="W56">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
       <c r="X56">
-        <v>0.231</v>
+        <v>0.167</v>
       </c>
       <c r="Y56">
-        <v>0.667</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AA56">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AB56">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD56" t="s">
         <v>132</v>
@@ -5924,76 +5900,76 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>630</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>14080</v>
+        <v>44</v>
       </c>
       <c r="I57">
-        <v>1400</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>3428</v>
+        <v>19</v>
       </c>
       <c r="K57">
-        <v>639</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>1754</v>
+        <v>10</v>
       </c>
       <c r="M57">
-        <v>508</v>
+        <v>7</v>
       </c>
       <c r="N57">
-        <v>659</v>
+        <v>10</v>
       </c>
       <c r="O57">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>1648</v>
+        <v>6</v>
       </c>
       <c r="Q57">
-        <v>2539</v>
+        <v>4</v>
       </c>
       <c r="R57">
-        <v>776</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>1038</v>
+        <v>8</v>
       </c>
       <c r="U57">
-        <v>1276</v>
+        <v>7</v>
       </c>
       <c r="V57">
-        <v>3947</v>
+        <v>16</v>
       </c>
       <c r="W57">
-        <v>0.408</v>
+        <v>0.211</v>
       </c>
       <c r="X57">
-        <v>0.364</v>
+        <v>0.1</v>
       </c>
       <c r="Y57">
-        <v>0.771</v>
+        <v>0.7</v>
       </c>
       <c r="Z57">
-        <v>22.3</v>
+        <v>4.4</v>
       </c>
       <c r="AA57">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="AB57">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="AC57">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="AD57" t="s">
         <v>132</v>
@@ -6016,76 +5992,76 @@
         <v>22</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H58">
-        <v>1248</v>
+        <v>673</v>
       </c>
       <c r="I58">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="J58">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="K58">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L58">
+        <v>19</v>
+      </c>
+      <c r="M58">
         <v>38</v>
       </c>
-      <c r="M58">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>16</v>
+      </c>
+      <c r="P58">
+        <v>74</v>
+      </c>
+      <c r="Q58">
         <v>59</v>
       </c>
-      <c r="N58">
-        <v>85</v>
-      </c>
-      <c r="O58">
-        <v>39</v>
-      </c>
-      <c r="P58">
-        <v>149</v>
-      </c>
-      <c r="Q58">
-        <v>117</v>
-      </c>
       <c r="R58">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="S58">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T58">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="U58">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="V58">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="W58">
-        <v>0.468</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
-        <v>0.316</v>
+        <v>0.263</v>
       </c>
       <c r="Y58">
-        <v>0.694</v>
+        <v>0.679</v>
       </c>
       <c r="Z58">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="AA58">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB58">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AC58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD58" t="s">
         <v>132</v>
@@ -6108,73 +6084,73 @@
         <v>23</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>7624</v>
+        <v>503</v>
       </c>
       <c r="I59">
-        <v>1143</v>
+        <v>60</v>
       </c>
       <c r="J59">
-        <v>2375</v>
+        <v>133</v>
       </c>
       <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+      <c r="M59">
+        <v>17</v>
+      </c>
+      <c r="N59">
+        <v>38</v>
+      </c>
+      <c r="O59">
+        <v>42</v>
+      </c>
+      <c r="P59">
+        <v>98</v>
+      </c>
+      <c r="Q59">
+        <v>49</v>
+      </c>
+      <c r="R59">
+        <v>20</v>
+      </c>
+      <c r="S59">
         <v>4</v>
       </c>
-      <c r="L59">
-        <v>36</v>
-      </c>
-      <c r="M59">
-        <v>594</v>
-      </c>
-      <c r="N59">
-        <v>893</v>
-      </c>
-      <c r="O59">
-        <v>501</v>
-      </c>
-      <c r="P59">
-        <v>1296</v>
-      </c>
-      <c r="Q59">
-        <v>544</v>
-      </c>
-      <c r="R59">
-        <v>251</v>
-      </c>
-      <c r="S59">
+      <c r="T59">
+        <v>41</v>
+      </c>
+      <c r="U59">
+        <v>87</v>
+      </c>
+      <c r="V59">
         <v>137</v>
       </c>
-      <c r="T59">
-        <v>554</v>
-      </c>
-      <c r="U59">
-        <v>897</v>
-      </c>
-      <c r="V59">
-        <v>2884</v>
-      </c>
       <c r="W59">
-        <v>0.481</v>
+        <v>0.451</v>
       </c>
       <c r="X59">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.665</v>
+        <v>0.447</v>
       </c>
       <c r="Z59">
-        <v>16.7</v>
+        <v>12.3</v>
       </c>
       <c r="AA59">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="AB59">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC59">
         <v>1.2</v>
@@ -6200,76 +6176,76 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <v>1146</v>
+        <v>81</v>
       </c>
       <c r="I60">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="J60">
-        <v>404</v>
+        <v>51</v>
       </c>
       <c r="K60">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="N60">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="O60">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="P60">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="Q60">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="S60">
+        <v>3</v>
+      </c>
+      <c r="T60">
+        <v>8</v>
+      </c>
+      <c r="U60">
         <v>15</v>
       </c>
-      <c r="T60">
-        <v>89</v>
-      </c>
-      <c r="U60">
-        <v>191</v>
-      </c>
       <c r="V60">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="W60">
-        <v>0.389</v>
+        <v>0.353</v>
       </c>
       <c r="X60">
-        <v>0.309</v>
+        <v>0.167</v>
       </c>
       <c r="Y60">
-        <v>0.721</v>
+        <v>0.8</v>
       </c>
       <c r="Z60">
-        <v>10.1</v>
+        <v>4.1</v>
       </c>
       <c r="AA60">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="AB60">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC60">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD60" t="s">
         <v>132</v>
@@ -6292,73 +6268,73 @@
         <v>22</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="H61">
-        <v>4531</v>
+        <v>2044</v>
       </c>
       <c r="I61">
-        <v>777</v>
+        <v>361</v>
       </c>
       <c r="J61">
-        <v>1705</v>
+        <v>776</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M61">
-        <v>419</v>
+        <v>182</v>
       </c>
       <c r="N61">
-        <v>678</v>
+        <v>282</v>
       </c>
       <c r="O61">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="P61">
-        <v>1023</v>
+        <v>472</v>
       </c>
       <c r="Q61">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="R61">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="S61">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="T61">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="U61">
-        <v>562</v>
+        <v>246</v>
       </c>
       <c r="V61">
-        <v>1974</v>
+        <v>904</v>
       </c>
       <c r="W61">
-        <v>0.456</v>
+        <v>0.465</v>
       </c>
       <c r="X61">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.618</v>
+        <v>0.645</v>
       </c>
       <c r="Z61">
-        <v>22.3</v>
+        <v>25.9</v>
       </c>
       <c r="AA61">
-        <v>9.699999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="AB61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC61">
         <v>0.6</v>
